--- a/213 - Kreisel/Kreisel.xlsx
+++ b/213 - Kreisel/Kreisel.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Zeit [s]</t>
   </si>
   <si>
     <t>ΔZeit [s]</t>
-  </si>
-  <si>
-    <t>Rotationsgeschwindigkeit [rpm]</t>
-  </si>
-  <si>
-    <t>ΔRotationsgeschwindigkeit[rpm]</t>
   </si>
   <si>
     <t>Gewichtsposition [cm]</t>
@@ -61,20 +56,111 @@
     <t>Messung Nr.</t>
   </si>
   <si>
-    <t>Durschnittsfrequenz [rpm]</t>
+    <t>Tabelle 7: Präzessionszeiten</t>
   </si>
   <si>
-    <t>ΔDurchschnittsfrequenz [rpm]</t>
+    <t>Länge [cm]</t>
   </si>
   <si>
-    <t>Tabelle …</t>
+    <t>ΔLänge [cm]</t>
+  </si>
+  <si>
+    <t>Masse [g]</t>
+  </si>
+  <si>
+    <t>Steigung [s^2/rad]</t>
+  </si>
+  <si>
+    <t>ΔSteigung [s^2/rad]</t>
+  </si>
+  <si>
+    <t>Steigung [s*min]</t>
+  </si>
+  <si>
+    <t>Δsteigung [s*min]</t>
+  </si>
+  <si>
+    <t>Tabelle 8: Trägheitsmoment</t>
+  </si>
+  <si>
+    <t>Iz [kg*m^2]</t>
+  </si>
+  <si>
+    <t>ΔIz [kg*m^2]</t>
+  </si>
+  <si>
+    <t>Zeit für 10 Umläufe [s]</t>
+  </si>
+  <si>
+    <t>Δ Zeit für 10 Umläufe</t>
+  </si>
+  <si>
+    <t>Rotationsfrq. [rpm]</t>
+  </si>
+  <si>
+    <t>Δ Rotationsfrq. [rpm]</t>
+  </si>
+  <si>
+    <t>Umlauffrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Δ Umlauffrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Rotationsfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Δ Rotationsfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Tabelle 9: Umlauf der moment Drehrichtung</t>
+  </si>
+  <si>
+    <t>Eigenfrequenz [rpm]</t>
+  </si>
+  <si>
+    <t>Δ Eigenfrequenz [rpm]</t>
+  </si>
+  <si>
+    <t>Durschnittsfrq. [rpm]</t>
+  </si>
+  <si>
+    <t>Δ Durchschnittsfrq. [rpm]</t>
+  </si>
+  <si>
+    <t>Eigenfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Δ Eigenfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Nutationsfrq [rpm]</t>
+  </si>
+  <si>
+    <t>Δ Nutationsfrq. [rpm]</t>
+  </si>
+  <si>
+    <t>Nutationsfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Δ Nutationsfrq. [rad/s]</t>
+  </si>
+  <si>
+    <t>Tabelle 10: Nutation bei kleiner Auslenkung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -101,6 +187,19 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -116,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,126 +223,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,1181 +593,1883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>15</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="19">
+        <v>9.85</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="E2" s="20">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F2" s="21">
+        <f>D2*60/(2*PI())</f>
+        <v>1.6281550678300893</v>
+      </c>
+      <c r="G2" s="21">
+        <f>E2*60/(2*PI())</f>
+        <v>6.6845076098596048E-3</v>
+      </c>
+      <c r="H2" s="22">
+        <f>A2*C2*9.8098*F2/(2*PI())*10^-5</f>
+        <v>3.7558093581905446E-3</v>
+      </c>
+      <c r="I2" s="22">
+        <f t="shared" ref="I2:I5" si="0">H2*((B2/A2)^2+(G2/F2)^2)^(1/2)</f>
+        <v>1.26139674003535E-4</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="19">
+        <v>9.85</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="E3" s="20">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:G5" si="1">D3*60/(2*PI())</f>
+        <v>1.2500029230437459</v>
+      </c>
+      <c r="G3" s="21">
+        <f t="shared" si="1"/>
+        <v>8.594366926962348E-3</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H5" si="2">A3*C3*9.8098*F3/(2*PI())*10^-5</f>
+        <v>3.8446564612875257E-3</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" si="0"/>
+        <v>9.9685068747178975E-5</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="19">
+        <f>2*9.85</f>
+        <v>19.7</v>
+      </c>
+      <c r="D4" s="20">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="1"/>
+        <v>0.8489324664521698</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>8.594366926962348E-3</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="2"/>
+        <v>3.9166152720602867E-3</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3644225733937655E-4</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>20</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="19">
+        <f>2*9.85</f>
+        <v>19.7</v>
+      </c>
+      <c r="D5" s="20">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="1"/>
+        <v>0.6598563940589981</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>4.7746482927568598E-3</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="2"/>
+        <v>4.0590643464471811E-3</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0564163198389008E-4</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>669.9</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>110</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" ref="H9:H24" si="3">D9*EXP(-$B$27*F9)</f>
+        <v>624.40298342437632</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" ref="I9:I24" si="4">SQRT(((EXP(-$B$27*F9)*E9)^2+(D9*F9*EXP(-$B$27*F9)*$C$27)^2)+(D9*$B$27*EXP(-$B$27*F9)*G9)^2)</f>
+        <v>0.50723714007149157</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" ref="J9:J24" si="5">(D9/($B$27*F9)*(1-EXP(-$B$27*F9)))</f>
+        <v>646.88485385704871</v>
+      </c>
+      <c r="K9" s="9">
+        <f>SQRT((EXP(-$B$27*F9)*E9)^2+(D9*F9*EXP(-$B$27*F9)*$C$27)^2+(D9*$B$27*EXP(-$B$27*F9)*G9)^2)</f>
+        <v>0.50723714007149157</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="B10" s="8">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>422</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>70</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="3"/>
+        <v>403.52896954683735</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="4"/>
+        <v>0.46497683326856987</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="5"/>
+        <v>412.69559469637682</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:K24" si="6">SQRT((EXP(-$B$27*F10)*E10)^2+(D10*F10*EXP(-$B$27*F10)*$C$27)^2+(D10*$B$27*EXP(-$B$27*F10)*G10)^2)</f>
+        <v>0.46497683326856987</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="B11" s="8">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>334.8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>57</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="H11" s="9">
+        <f t="shared" si="3"/>
+        <v>322.81788020376854</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.35733891552531166</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="5"/>
+        <v>328.77255019835133</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="6"/>
+        <v>0.35733891552531166</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>255</v>
+      </c>
+      <c r="E12" s="8">
         <v>0.3</v>
       </c>
-      <c r="D3" s="14">
-        <v>633</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="F12" s="8">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="3"/>
+        <v>248.08463026492333</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="4"/>
+        <v>0.33289808140210758</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="5"/>
+        <v>251.52647129441672</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="6"/>
+        <v>0.33289808140210758</v>
+      </c>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.5</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="D13" s="8">
+        <v>601.9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>76</v>
+      </c>
+      <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
-        <v>121</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="H13" s="9">
+        <f t="shared" si="3"/>
+        <v>573.35092750089211</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="4"/>
+        <v>0.83106919952873859</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="5"/>
+        <v>587.50986037637654</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.83106919952873859</v>
+      </c>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>492</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.3</v>
       </c>
-      <c r="D4" s="14">
-        <v>585.70000000000005</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="F14" s="8">
+        <v>63</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="3"/>
+        <v>472.575435748757</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.42194413715352858</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="5"/>
+        <v>482.22251569752478</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="6"/>
+        <v>0.42194413715352858</v>
+      </c>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>381.4</v>
+      </c>
+      <c r="E15" s="8">
         <v>0.3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14">
-        <v>240</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="F15" s="8">
+        <v>50</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="3"/>
+        <v>369.39974730768091</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="4"/>
+        <v>0.37634596683034416</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="5"/>
+        <v>375.36790421573988</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="6"/>
+        <v>0.37634596683034416</v>
+      </c>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>267</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.3</v>
       </c>
-      <c r="D5" s="14">
-        <v>542.5</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="F16" s="8">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="3"/>
+        <v>261.25828820580375</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="4"/>
+        <v>0.33823733432075109</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="5"/>
+        <v>264.11874253302824</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="6"/>
+        <v>0.33823733432075109</v>
+      </c>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
         <v>0.5</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14">
-        <v>360</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="D17" s="8">
+        <v>628.4</v>
+      </c>
+      <c r="E17" s="8">
         <v>0.3</v>
       </c>
-      <c r="D6" s="14">
-        <v>502</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14">
-        <v>480</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="F17" s="8">
+        <v>54</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="3"/>
+        <v>607.07360995184729</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="4"/>
+        <v>0.48902859479988486</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="5"/>
+        <v>617.67544509834943</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="6"/>
+        <v>0.48902859479988486</v>
+      </c>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>547</v>
+      </c>
+      <c r="E18" s="8">
         <v>0.3</v>
       </c>
-      <c r="D7" s="14">
-        <v>464.7</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="F18" s="8">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="3"/>
+        <v>530.46727302343868</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="4"/>
+        <v>0.4498770462761022</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="5"/>
+        <v>538.69135398628816</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="6"/>
+        <v>0.4498770462761022</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>425.4</v>
+      </c>
+      <c r="E19" s="8">
         <v>0.3</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14">
-        <v>600</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="F19" s="8">
+        <v>38</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="3"/>
+        <v>415.18874645655126</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="4"/>
+        <v>0.39653924282579245</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="5"/>
+        <v>420.27369847246854</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="6"/>
+        <v>0.39653924282579245</v>
+      </c>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="8">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>261.5</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.3</v>
       </c>
-      <c r="D8" s="14">
-        <v>431</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14">
-        <v>720</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="F20" s="8">
+        <v>24</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="3"/>
+        <v>257.51784404443237</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="4"/>
+        <v>0.33845255635157706</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="5"/>
+        <v>259.50382977115845</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="6"/>
+        <v>0.33845255635157706</v>
+      </c>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>662.4</v>
+      </c>
+      <c r="E21" s="8">
         <v>0.3</v>
       </c>
-      <c r="D9" s="14">
-        <v>399.9</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="F21" s="8">
+        <v>45</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="3"/>
+        <v>643.61274947941638</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="4"/>
+        <v>0.50775813764914379</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="5"/>
+        <v>652.96132920428147</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="6"/>
+        <v>0.50775813764914379</v>
+      </c>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="8">
+        <v>580</v>
+      </c>
+      <c r="E22" s="8">
         <v>0.3</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="F22" s="8">
+        <v>40</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="3"/>
+        <v>565.35432358090486</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="4"/>
+        <v>0.46724355179841687</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="5"/>
+        <v>572.64594798661869</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="6"/>
+        <v>0.46724355179841687</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="B23" s="8">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="8">
+        <v>462</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>31</v>
+      </c>
+      <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H23" s="9">
+        <f t="shared" si="3"/>
+        <v>452.93286753530771</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="4"/>
+        <v>0.41375516614952307</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="5"/>
+        <v>457.4514572509259</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="6"/>
+        <v>0.41375516614952307</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="8">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>373.3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>26</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="3"/>
+        <v>367.14554323072383</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="4"/>
+        <v>0.37755016157518306</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="5"/>
+        <v>370.2142456595351</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="6"/>
+        <v>0.37755016157518306</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="C26" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14">
-        <v>15</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="14">
-        <v>669.9</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>110</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <f t="shared" ref="H13:H28" si="0">D13*EXP(-$B$31*F13)</f>
-        <v>620.2345017695618</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" ref="I13:I28" si="1">SQRT(((EXP(-$B$31*F13)*E13)^2+(D13*F13*EXP(-$B$31*F13)*$C$31)^2)+(D13*$B$31*EXP(-$B$31*F13)*G13)^2)</f>
-        <v>1.1959163485201847</v>
-      </c>
-      <c r="J13" s="16">
-        <f t="shared" ref="J13:J28" si="2">(D13/($B$31*F13)*(1-EXP(-$B$31*F13)))</f>
-        <v>644.74846793696088</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" ref="K13:K28" si="3">SQRT((EXP(-$B$31*F13)*E13)^2+(D13*F13*EXP(-$B$31*F13)*C31)^2+(D13*$B$31*EXP(-$B$31*F13)*G13)^2)</f>
-        <v>1.1959163485201847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>2</v>
-      </c>
-      <c r="B14" s="14">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>422</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="14">
-        <v>70</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>401.8125579779192</v>
-      </c>
-      <c r="I14" s="14">
-        <f t="shared" si="1"/>
-        <v>0.64972108539531437</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" si="2"/>
-        <v>411.82381725044877</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="3"/>
-        <v>0.47353309936239824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
-        <v>3</v>
-      </c>
-      <c r="B15" s="14">
-        <v>15</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="14">
-        <v>334.8</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="14">
-        <v>57</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16">
-        <f t="shared" si="0"/>
-        <v>321.69933665006755</v>
-      </c>
-      <c r="I15" s="14">
-        <f t="shared" si="1"/>
-        <v>0.46685972140536447</v>
-      </c>
-      <c r="J15" s="16">
-        <f t="shared" si="2"/>
-        <v>328.20609234567655</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="3"/>
-        <v>0.36584881445303069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>4</v>
-      </c>
-      <c r="B16" s="14">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="14">
-        <v>255</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>43</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16">
-        <f t="shared" si="0"/>
-        <v>247.43588559290151</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
-        <v>0.37826255239839385</v>
-      </c>
-      <c r="J16" s="16">
-        <f t="shared" si="2"/>
-        <v>251.19896217061932</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="3"/>
-        <v>0.33876812802188427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>5</v>
-      </c>
-      <c r="B17" s="14">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="14">
-        <v>601.9</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="14">
-        <v>76</v>
-      </c>
-      <c r="G17" s="14">
-        <v>2</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="0"/>
-        <v>570.70362538078632</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="1"/>
-        <v>1.1195270634171477</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="2"/>
-        <v>586.16345995048925</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="3"/>
-        <v>0.88472166621118509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>6</v>
-      </c>
-      <c r="B18" s="14">
-        <v>20</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="14">
-        <v>492</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="14">
-        <v>63</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" si="0"/>
-        <v>470.76595958817546</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.64118680256883465</v>
-      </c>
-      <c r="J18" s="16">
-        <f t="shared" si="2"/>
-        <v>481.30491600135588</v>
-      </c>
-      <c r="K18" s="17">
-        <f t="shared" si="3"/>
-        <v>0.43712710336159277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
-        <v>7</v>
-      </c>
-      <c r="B19" s="14">
-        <v>20</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="14">
-        <v>381.4</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="14">
-        <v>50</v>
-      </c>
-      <c r="G19" s="14">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>368.27674778687157</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.48501979803071121</v>
-      </c>
-      <c r="J19" s="16">
-        <f t="shared" si="2"/>
-        <v>374.80008320694697</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="3"/>
-        <v>0.38784519476485174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>8</v>
-      </c>
-      <c r="B20" s="14">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="14">
-        <v>267</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="14">
-        <v>34</v>
-      </c>
-      <c r="G20" s="14">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="0"/>
-        <v>260.71794033614896</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.37256581316307497</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="2"/>
-        <v>263.84650588174401</v>
-      </c>
-      <c r="K20" s="17">
-        <f t="shared" si="3"/>
-        <v>0.34517904258577548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <v>9</v>
-      </c>
-      <c r="B21" s="14">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="14">
-        <v>628.4</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="14">
-        <v>54</v>
-      </c>
-      <c r="G21" s="14">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <f t="shared" si="0"/>
-        <v>605.08066536875037</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.72805090560184693</v>
-      </c>
-      <c r="J21" s="16">
-        <f t="shared" si="2"/>
-        <v>616.66684913748816</v>
-      </c>
-      <c r="K21" s="17">
-        <f t="shared" si="3"/>
-        <v>0.51282354874873481</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5">
+        <f>1/1564</f>
+        <v>6.3938618925831207E-4</v>
+      </c>
+      <c r="C27" s="6">
+        <f>5/1564^2</f>
+        <v>2.0440734950713301E-6</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="14">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="14">
-        <v>547</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="14">
-        <v>48</v>
-      </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" si="0"/>
-        <v>528.91902962056668</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.61852895298002586</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="2"/>
-        <v>537.90886878814206</v>
-      </c>
-      <c r="K22" s="17">
-        <f t="shared" si="3"/>
-        <v>0.47046606670263241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>11</v>
-      </c>
-      <c r="B23" s="14">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="14">
-        <v>425.4</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="14">
-        <v>38</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="0"/>
-        <v>414.22912323815552</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.48110373366506609</v>
-      </c>
-      <c r="J23" s="16">
-        <f t="shared" si="2"/>
-        <v>419.78978989247099</v>
-      </c>
-      <c r="K23" s="17">
-        <f t="shared" si="3"/>
-        <v>0.41167905328249277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>12</v>
-      </c>
-      <c r="B24" s="14">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="14">
-        <v>261.5</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="B29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <f t="shared" si="0"/>
-        <v>257.14176839895157</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.35913539278689688</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="2"/>
-        <v>259.31478026238312</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="3"/>
-        <v>0.34561644902514821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
-        <v>13</v>
-      </c>
-      <c r="B25" s="14">
-        <v>20</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="14">
-        <v>662.4</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F25" s="14">
-        <v>45</v>
-      </c>
-      <c r="G25" s="14">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <f t="shared" si="0"/>
-        <v>641.8515189386012</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.70372092598538949</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="2"/>
-        <v>652.07179901505538</v>
-      </c>
-      <c r="K25" s="17">
-        <f t="shared" si="3"/>
-        <v>0.53528620872481947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
-        <v>14</v>
-      </c>
-      <c r="B26" s="14">
-        <v>20</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="14">
-        <v>580</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F26" s="14">
-        <v>40</v>
-      </c>
-      <c r="G26" s="14">
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <f t="shared" si="0"/>
-        <v>563.97893361762874</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.60694740367061606</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="2"/>
-        <v>571.95206985065261</v>
-      </c>
-      <c r="K26" s="17">
-        <f t="shared" si="3"/>
-        <v>0.49099569331720705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
-        <v>15</v>
-      </c>
-      <c r="B27" s="14">
-        <v>20</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="14">
-        <v>462</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F27" s="14">
-        <v>31</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="0"/>
-        <v>452.07866739976328</v>
-      </c>
-      <c r="I27" s="14">
-        <f t="shared" si="1"/>
-        <v>0.48531620786386442</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="2"/>
-        <v>457.02138558509824</v>
-      </c>
-      <c r="K27" s="17">
-        <f t="shared" si="3"/>
-        <v>0.43174068982464459</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>16</v>
-      </c>
-      <c r="B28" s="14">
-        <v>20</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="14">
-        <v>373.3</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="E29" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="0"/>
-        <v>366.56472290023544</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" si="1"/>
-        <v>0.41880563916292107</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>369.92214224860891</v>
-      </c>
-      <c r="K28" s="17">
-        <f t="shared" si="3"/>
-        <v>0.39073712118258702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="G29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>29</v>
+      </c>
       <c r="J29" s="16"/>
       <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>1</v>
+      </c>
+      <c r="B30" s="28">
+        <v>18.87</v>
+      </c>
+      <c r="C30" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D30" s="28">
+        <v>515</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="29">
+        <f>10/B30*(2*PI())</f>
+        <v>3.3297219433914078</v>
+      </c>
+      <c r="G30" s="29">
+        <f>(20*PI())*C30/B30^2</f>
+        <v>5.2936755856779136E-2</v>
+      </c>
+      <c r="H30" s="19">
+        <f>D30*2*PI()/60</f>
+        <v>53.930673886624781</v>
+      </c>
+      <c r="I30" s="19">
+        <f>E30*2*PI()/60</f>
+        <v>3.1415926535897934E-2</v>
+      </c>
       <c r="J30" s="16"/>
       <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15">
-        <f>1/1428</f>
-        <v>7.0028011204481793E-4</v>
-      </c>
-      <c r="C31" s="14">
-        <f>31/1400^2</f>
-        <v>1.5816326530612244E-5</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>2</v>
+      </c>
+      <c r="B31" s="28">
+        <v>19.53</v>
+      </c>
+      <c r="C31" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="26">
+        <v>480</v>
+      </c>
+      <c r="E31" s="26">
+        <v>5</v>
+      </c>
+      <c r="F31" s="29">
+        <f t="shared" ref="F31:F39" si="7">10/B31*(2*PI())</f>
+        <v>3.2171967778697317</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" ref="G31:G39" si="8">(20*PI())*C31/B31^2</f>
+        <v>4.9419305343621073E-2</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" ref="H31:I39" si="9">D31*2*PI()/60</f>
+        <v>50.265482457436683</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="9"/>
+        <v>0.52359877559829882</v>
+      </c>
       <c r="J31" s="16"/>
       <c r="K31" s="17"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>3</v>
+      </c>
+      <c r="B32" s="28">
+        <v>20.32</v>
+      </c>
+      <c r="C32" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="26">
+        <v>465</v>
+      </c>
+      <c r="E32" s="26">
+        <v>5</v>
+      </c>
+      <c r="F32" s="29">
+        <f t="shared" si="7"/>
+        <v>3.0921187535332608</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="8"/>
+        <v>4.565135955019578E-2</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="9"/>
+        <v>48.694686130641792</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="9"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>4</v>
+      </c>
+      <c r="B33" s="28">
+        <v>25.23</v>
+      </c>
+      <c r="C33" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="28">
+        <v>380</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="29">
+        <f t="shared" si="7"/>
+        <v>2.4903627852475569</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" si="8"/>
+        <v>2.961192372470341E-2</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="9"/>
+        <v>39.793506945470718</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>5</v>
+      </c>
+      <c r="B34" s="28">
+        <v>27.62</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D34" s="28">
+        <v>355</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="30">
+        <f t="shared" si="7"/>
+        <v>2.2748679606008637</v>
+      </c>
+      <c r="G34" s="30">
+        <f t="shared" si="8"/>
+        <v>2.4708920643745805E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="9"/>
+        <v>37.175513067479216</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>6</v>
+      </c>
+      <c r="B35" s="28">
+        <v>29.15</v>
+      </c>
+      <c r="C35" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="28">
+        <v>334.4</v>
+      </c>
+      <c r="E35" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="7"/>
+        <v>2.1554666576945412</v>
+      </c>
+      <c r="G35" s="29">
+        <f t="shared" si="8"/>
+        <v>4.4366380604347326E-2</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="9"/>
+        <v>35.018286112014231</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>7</v>
+      </c>
+      <c r="B36" s="28">
+        <v>30.95</v>
+      </c>
+      <c r="C36" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D36" s="28">
+        <v>307</v>
+      </c>
+      <c r="E36" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="30">
+        <f t="shared" si="7"/>
+        <v>2.0301083383455851</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="8"/>
+        <v>1.9677948352299697E-2</v>
+      </c>
+      <c r="H36" s="19">
+        <f t="shared" si="9"/>
+        <v>32.148964821735554</v>
+      </c>
+      <c r="I36" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>8</v>
+      </c>
+      <c r="B37" s="28">
+        <v>23.98</v>
+      </c>
+      <c r="C37" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D37" s="28">
+        <v>402</v>
+      </c>
+      <c r="E37" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="7"/>
+        <v>2.6201773591240975</v>
+      </c>
+      <c r="G37" s="29">
+        <f t="shared" si="8"/>
+        <v>3.2779533266773533E-2</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="9"/>
+        <v>42.097341558103231</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>9</v>
+      </c>
+      <c r="B38" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="C38" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="28">
+        <v>494</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" si="7"/>
+        <v>3.2221463113741464</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="8"/>
+        <v>4.9571481713448412E-2</v>
+      </c>
+      <c r="H38" s="19">
+        <f t="shared" si="9"/>
+        <v>51.731559029111928</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>10</v>
+      </c>
+      <c r="B39" s="28">
+        <v>21.58</v>
+      </c>
+      <c r="C39" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="28">
+        <v>448.8</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F39" s="29">
+        <f t="shared" si="7"/>
+        <v>2.9115779922055545</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" si="8"/>
+        <v>4.0476061059391402E-2</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="9"/>
+        <v>46.998226097703309</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="9"/>
+        <v>3.1415926535897934E-2</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>1</v>
+      </c>
+      <c r="B43" s="28">
+        <v>541</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="14">
+        <f>B43*(2*PI()/60)</f>
+        <v>56.653387519735936</v>
+      </c>
+      <c r="E43" s="14">
+        <f>C43*(2*PI()/60)</f>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F43" s="26">
+        <v>495</v>
+      </c>
+      <c r="G43" s="26">
+        <v>5</v>
+      </c>
+      <c r="H43" s="15">
+        <f t="shared" ref="H43:I52" si="10">F43*(2*PI()/60)</f>
+        <v>51.836278784231581</v>
+      </c>
+      <c r="I43" s="15">
+        <f t="shared" ref="I43:I52" si="11">G43*(2*PI()/60)</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>2</v>
+      </c>
+      <c r="B44" s="28">
+        <v>488.1</v>
+      </c>
+      <c r="C44" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" ref="D44:E52" si="12">B44*(2*PI()/60)</f>
+        <v>51.113712473905935</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F44" s="26">
+        <v>450</v>
+      </c>
+      <c r="G44" s="26">
+        <v>5</v>
+      </c>
+      <c r="H44" s="15">
+        <f t="shared" si="10"/>
+        <v>47.123889803846893</v>
+      </c>
+      <c r="I44" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>3</v>
+      </c>
+      <c r="B45" s="28">
+        <v>531.79999999999995</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D45" s="14">
+        <f t="shared" si="12"/>
+        <v>55.689965772635055</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F45" s="26">
+        <v>490</v>
+      </c>
+      <c r="G45" s="26">
+        <v>5</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="10"/>
+        <v>51.312680008633286</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>4</v>
+      </c>
+      <c r="B46" s="28">
+        <v>580.4</v>
+      </c>
+      <c r="C46" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="14">
+        <f t="shared" si="12"/>
+        <v>60.779345871450523</v>
+      </c>
+      <c r="E46" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F46" s="26">
+        <v>535</v>
+      </c>
+      <c r="G46" s="26">
+        <v>5</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="10"/>
+        <v>56.025068989017974</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>5</v>
+      </c>
+      <c r="B47" s="28">
+        <v>614.79999999999995</v>
+      </c>
+      <c r="C47" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="14">
+        <f t="shared" si="12"/>
+        <v>64.381705447566816</v>
+      </c>
+      <c r="E47" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F47" s="26">
+        <v>570</v>
+      </c>
+      <c r="G47" s="26">
+        <v>5</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="10"/>
+        <v>59.690260418206066</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>6</v>
+      </c>
+      <c r="B48" s="28">
+        <v>570</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D48" s="14">
+        <f t="shared" si="12"/>
+        <v>59.690260418206066</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F48" s="26">
+        <v>525</v>
+      </c>
+      <c r="G48" s="26">
+        <v>5</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="10"/>
+        <v>54.977871437821378</v>
+      </c>
+      <c r="I48" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>7</v>
+      </c>
+      <c r="B49" s="28">
+        <v>561</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="14">
+        <f t="shared" si="12"/>
+        <v>58.747782622129129</v>
+      </c>
+      <c r="E49" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F49" s="26">
+        <v>515</v>
+      </c>
+      <c r="G49" s="26">
+        <v>5</v>
+      </c>
+      <c r="H49" s="15">
+        <f t="shared" si="10"/>
+        <v>53.930673886624781</v>
+      </c>
+      <c r="I49" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>8</v>
+      </c>
+      <c r="B50" s="28">
+        <v>501.3</v>
+      </c>
+      <c r="C50" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D50" s="14">
+        <f t="shared" si="12"/>
+        <v>52.496013241485443</v>
+      </c>
+      <c r="E50" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F50" s="26">
+        <v>455</v>
+      </c>
+      <c r="G50" s="26">
+        <v>5</v>
+      </c>
+      <c r="H50" s="15">
+        <f t="shared" si="10"/>
+        <v>47.647488579445195</v>
+      </c>
+      <c r="I50" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>9</v>
+      </c>
+      <c r="B51" s="28">
+        <v>373.3</v>
+      </c>
+      <c r="C51" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D51" s="14">
+        <f t="shared" si="12"/>
+        <v>39.091884586168995</v>
+      </c>
+      <c r="E51" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F51" s="26">
+        <v>345</v>
+      </c>
+      <c r="G51" s="26">
+        <v>5</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" si="10"/>
+        <v>36.128315516282619</v>
+      </c>
+      <c r="I51" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>10</v>
+      </c>
+      <c r="B52" s="28">
+        <v>451.5</v>
+      </c>
+      <c r="C52" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" si="12"/>
+        <v>47.280969436526384</v>
+      </c>
+      <c r="E52" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1415926535897927E-2</v>
+      </c>
+      <c r="F52" s="26">
+        <v>425</v>
+      </c>
+      <c r="G52" s="26">
+        <v>5</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="10"/>
+        <v>44.505895925855398</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="11"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1754,7 +2477,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1762,7 +2485,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1770,7 +2493,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1778,7 +2501,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1786,7 +2509,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -9250,49 +9973,220 @@
       <c r="F996" s="1"/>
       <c r="G996" s="1"/>
     </row>
-    <row r="997" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-    </row>
-    <row r="998" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-    </row>
-    <row r="999" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-    </row>
-    <row r="1000" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A53:C53"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:B1">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:I28">
+  <conditionalFormatting sqref="B9:I24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(B13))&gt;0</formula>
+      <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DDA316-AEB7-4D75-BFE6-8FA80ED1665C}">
+  <dimension ref="B2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9.85</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G3" s="12">
+        <f>E3*60/(2*PI())</f>
+        <v>1.6281550678300893</v>
+      </c>
+      <c r="H3" s="12">
+        <f>F3*60/(2*PI())</f>
+        <v>6.6845076098596048E-3</v>
+      </c>
+      <c r="I3" s="11">
+        <f>B3*D3*9.8098*G3/(2*PI())*10^-5</f>
+        <v>3.7558093581905446E-3</v>
+      </c>
+      <c r="J3" s="11">
+        <f>I3*((C3/B3)^2+(H3/G3)^2)^(1/2)</f>
+        <v>1.26139674003535E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="14">
+        <f>2*9.85</f>
+        <v>19.7</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.13089999999999999</v>
+      </c>
+      <c r="F4" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:H6" si="0">E4*60/(2*PI())</f>
+        <v>1.2500029230437459</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>8.594366926962348E-3</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I6" si="1">B4*D4*9.8098*G4/(2*PI())*10^-5</f>
+        <v>5.7669846919312876E-3</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J6" si="2">I4*((C4/B4)^2+(H4/G4)^2)^(1/2)</f>
+        <v>1.9627949991080497E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9.85</v>
+      </c>
+      <c r="E5" s="13">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8489324664521698</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>8.594366926962348E-3</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="1"/>
+        <v>2.611076848040191E-3</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="2"/>
+        <v>7.0426023647420508E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>20</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="14">
+        <f>2*9.85</f>
+        <v>19.7</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.6598563940589981</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>4.7746482927568598E-3</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>4.0590643464471811E-3</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0564163198389008E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
